--- a/resource/PhantomRead/PhantomRead.xlsx
+++ b/resource/PhantomRead/PhantomRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\resource\PhantomRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC300C7-DB6C-4A3B-BDBC-835ED362103A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F49F4F-589A-48B1-97CD-4A111A699A24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>隔离级别</t>
   </si>
@@ -67,9 +69,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -85,42 +84,24 @@
     <t>/* Query 1 */</t>
   </si>
   <si>
-    <t>SELECT age FROM users WHERE id = 1;</t>
-  </si>
-  <si>
     <t>/* Query 2 */</t>
   </si>
   <si>
-    <t>UPDATE users SET age = 21 WHERE id = 1;</t>
-  </si>
-  <si>
     <t>/* No commit here */</t>
   </si>
   <si>
-    <t>/* 结果为 21 */</t>
-  </si>
-  <si>
     <t>ROLLBACK; /* lock-based DIRTY READ */</t>
   </si>
   <si>
-    <t>/*结果为20 */</t>
-  </si>
-  <si>
     <t>COMMIT;</t>
   </si>
   <si>
     <t xml:space="preserve">COMMIT; </t>
   </si>
   <si>
-    <t>INSERT INTO users VALUES ( 3, 'Bob', 27 );</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>SELECT * FROM users WHERE age BETWEEN 10 AND 30;</t>
-  </si>
-  <si>
     <t>事务A</t>
   </si>
   <si>
@@ -142,20 +123,128 @@
     <t>没有读到事务C新添加的数据。</t>
   </si>
   <si>
-    <t>select * from users where age=25</t>
-  </si>
-  <si>
-    <t>UPDATE users SET name='Jonny' WHERE age = 25;</t>
-  </si>
-  <si>
-    <t>insert into users values (3,'jack',25);</t>
+    <t>class_id</t>
+  </si>
+  <si>
+    <t>SELECT class_id FROM users WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>/*结果为1 */</t>
+  </si>
+  <si>
+    <t>UPDATE users SET class_id=2 WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>/* 结果为 2 */</t>
+  </si>
+  <si>
+    <t>/* 结果为 1 */</t>
+  </si>
+  <si>
+    <t>SELECT * FROM users WHERE class_id=1;</t>
+  </si>
+  <si>
+    <t>INSERT INTO users VALUES ( 3, 'Bob', 1 );</t>
+  </si>
+  <si>
+    <t>insert into users values (3,'jack',1);</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>读取version&lt;=1001的数据</t>
+  </si>
+  <si>
+    <t>依然是读取version&lt;=1001的数据</t>
+  </si>
+  <si>
+    <t>读取version&lt;=1002且id=1的数据,然后复制该条数据,并把version设置为1002</t>
+  </si>
+  <si>
+    <t>插入一条数据,由于当前事务的版本好是1003,所以新插入的数据版本号是1003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(事务A版本号)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(事务B版本号)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(事务C版本号)</t>
+    </r>
+  </si>
+  <si>
+    <t>事务version</t>
+  </si>
+  <si>
+    <t>数据行号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,19 +269,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -202,12 +328,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -290,38 +430,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,47 +606,145 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="58">
     <dxf>
       <font>
         <b val="0"/>
@@ -425,7 +793,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="4"/>
@@ -456,7 +826,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
         <right style="thin">
           <color theme="4"/>
         </right>
@@ -505,13 +877,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
@@ -519,6 +884,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -575,7 +946,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
         <right/>
         <top style="thin">
           <color theme="4"/>
@@ -606,7 +979,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
         <right style="thin">
           <color theme="4"/>
         </right>
@@ -655,6 +1030,55 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -662,9 +1086,15 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -672,10 +1102,39 @@
         <top style="thin">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -714,6 +1173,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -733,6 +1202,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -752,6 +1231,29 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -809,6 +1311,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -828,6 +1340,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -847,6 +1369,139 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -869,7 +1524,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -925,6 +1580,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -945,7 +1603,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -982,6 +1640,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1021,7 +1682,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1058,6 +1719,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1116,7 +1780,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1153,79 +1817,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1242,95 +1833,107 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D6293AD-A75E-4F6C-A027-B417F067461A}" name="表2" displayName="表2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D6293AD-A75E-4F6C-A027-B417F067461A}" name="表2" displayName="表2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowCellStyle="好">
   <autoFilter ref="A1:D5" xr:uid="{97F19234-BE1F-45FF-A6F6-2E59BC65D2AE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5373A9E3-C53F-445B-ABA6-62F507808B52}" name="隔离级别" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{ABA8823C-A40C-4703-88F3-3E24A6A07C0C}" name="脏读（Dirty Read）" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{D4B41ADD-8C13-44D5-8426-C872A32E160B}" name="不可重复读（NonRepeatable Read）" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{10DD6242-F7F9-4910-9712-6B9FC58F0D21}" name="幻读（Phantom Read）" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{5373A9E3-C53F-445B-ABA6-62F507808B52}" name="隔离级别" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{ABA8823C-A40C-4703-88F3-3E24A6A07C0C}" name="脏读（Dirty Read）" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D4B41ADD-8C13-44D5-8426-C872A32E160B}" name="不可重复读（NonRepeatable Read）" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{10DD6242-F7F9-4910-9712-6B9FC58F0D21}" name="幻读（Phantom Read）" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40564FB3-9926-40FA-9498-D355D24345E3}" name="表3" displayName="表3" ref="F1:H3" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40564FB3-9926-40FA-9498-D355D24345E3}" name="表3" displayName="表3" ref="F1:H3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowCellStyle="好">
   <autoFilter ref="F1:H3" xr:uid="{706CDEE7-74D5-4831-83BF-E47D9053969D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E03B532-84E0-4CCE-8FEF-B1CCC0959555}" name="id" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{24811457-580F-4BEA-B7D1-63D03B5880F4}" name="name" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{3E19F4AF-670E-4F8F-903C-66B4D7B451A3}" name="age" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4E03B532-84E0-4CCE-8FEF-B1CCC0959555}" name="id" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{24811457-580F-4BEA-B7D1-63D03B5880F4}" name="name" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{3E19F4AF-670E-4F8F-903C-66B4D7B451A3}" name="class_id" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A547CD9F-11AF-4BC3-B7F2-B685C62DF31D}" name="表4" displayName="表4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A547CD9F-11AF-4BC3-B7F2-B685C62DF31D}" name="表4" displayName="表4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowCellStyle="好">
   <autoFilter ref="A1:B11" xr:uid="{09BB5791-43CA-4081-A658-BCCE5A71ADB0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5A905238-6B35-4ABA-9187-3D7F93F0D48F}" name="事务 1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{4CFED88F-B827-4F54-ACD7-BBA1CA426BAC}" name="事务 2" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{5A905238-6B35-4ABA-9187-3D7F93F0D48F}" name="事务 1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{4CFED88F-B827-4F54-ACD7-BBA1CA426BAC}" name="事务 2" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9B6A69A7-054B-42D7-A92E-D833A9026D8F}" name="表5" displayName="表5" ref="A2:B12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9B6A69A7-054B-42D7-A92E-D833A9026D8F}" name="表5" displayName="表5" ref="A2:B12" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="好">
   <autoFilter ref="A2:B12" xr:uid="{7789C5F8-21FA-4B15-B3E6-3B6F950FE54B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{82FF0183-D146-4852-A21A-8AFDEC5C9091}" name="事务 1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{E58A7DF5-ADD7-4E4C-AC3E-EBBDE43B76F1}" name="事务 2" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{82FF0183-D146-4852-A21A-8AFDEC5C9091}" name="事务 1" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{E58A7DF5-ADD7-4E4C-AC3E-EBBDE43B76F1}" name="事务 2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7EE2F657-E40F-4756-BD3D-20816F0797CF}" name="表3_7" displayName="表3_7" ref="A5:C7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A5:C7" xr:uid="{731CD6C7-6E73-4AD4-89C4-7F84035B297D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA47CA3B-20BC-4196-BA6C-82CE7888D9CD}" name="表3_8" displayName="表3_8" ref="A13:C16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="注释">
+  <autoFilter ref="A13:C16" xr:uid="{7D2D1BB2-3740-4AD1-ABAC-E57B64B3B43E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AEA66A86-0482-4D6A-9536-1A4E3D953024}" name="id" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{95A13F62-159B-4FF0-968F-3C01DE2B75EE}" name="name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{CE3DE153-8320-4517-95D9-919AF1DF6690}" name="age" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{867596D8-7BD8-4255-B3B7-7486A750217E}" name="id" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{FE7F2DC3-96CD-4790-8A60-3971EB042CE7}" name="name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{4923B8C0-BFEB-4C96-8862-4C0678C1FB92}" name="class_id" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA47CA3B-20BC-4196-BA6C-82CE7888D9CD}" name="表3_8" displayName="表3_8" ref="A13:C16" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A13:C16" xr:uid="{7D2D1BB2-3740-4AD1-ABAC-E57B64B3B43E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25" tableBorderDxfId="29" totalsRowBorderDxfId="32" headerRowCellStyle="注释">
+  <autoFilter ref="A4:C6" xr:uid="{6FF22E54-6FB1-422F-A7E7-7F7D4DC17395}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{867596D8-7BD8-4255-B3B7-7486A750217E}" name="id" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{FE7F2DC3-96CD-4790-8A60-3971EB042CE7}" name="name" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{4923B8C0-BFEB-4C96-8862-4C0678C1FB92}" name="age" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="class_id" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A4:C6" xr:uid="{6FF22E54-6FB1-422F-A7E7-7F7D4DC17395}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" tableBorderDxfId="23" totalsRowBorderDxfId="30" headerRowCellStyle="注释">
+  <autoFilter ref="A12:C14" xr:uid="{3AD65E3D-92A6-493B-A090-7BB7F952B1A2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="age" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0DECEEC2-8B96-4AD1-A4BE-915970B356B4}" name="id" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{4664AF7A-5543-42E6-B76D-76E04B915F44}" name="name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{07F877D1-E7F4-43F1-AD0F-25CDE608649D}" name="class_id" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A12:C14" xr:uid="{3AD65E3D-92A6-493B-A090-7BB7F952B1A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA288364-29FB-4C37-B691-C0104A43E1BD}" name="表12_11" displayName="表12_11" ref="E10:G12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="16">
+  <autoFilter ref="E10:G12" xr:uid="{05647586-9970-47D7-A8DD-02C72520F878}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0DECEEC2-8B96-4AD1-A4BE-915970B356B4}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4664AF7A-5543-42E6-B76D-76E04B915F44}" name="name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{07F877D1-E7F4-43F1-AD0F-25CDE608649D}" name="age" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{108E5160-2B1A-464D-AB42-206C55C8A0AD}" name="id" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F64EECDC-388A-41A3-8F24-D24953C44541}" name="name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D606F162-389F-4A3E-945A-9A4CC6AB1D36}" name="class_id" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5F888095-F25A-4129-A463-E3F1B99FF4EF}" name="表13_12" displayName="表13_12" ref="E18:G20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="14">
+  <autoFilter ref="E18:G20" xr:uid="{71A85346-D5F3-4A0F-82E5-F299A87A3900}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A09F8D93-C53D-4806-BE43-4FE5691465F2}" name="id" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{380E7136-AB15-4703-8784-04E86B881EFE}" name="name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DC0A4E70-4E4D-43EF-84DF-69E0218293C9}" name="class_id" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1602,7 +2205,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H3"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,102 +2215,103 @@
     <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1725,81 +2329,81 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1815,84 +2419,84 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
+      <c r="A12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1908,166 +2512,166 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>2</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2">
-        <v>20</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>25</v>
-      </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3">
-        <v>27</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2078,9 +2682,8 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2089,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3758BE59-7D46-4C73-935B-753AF58806BD}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,190 +2705,190 @@
     <col min="5" max="5" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C12" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="C13" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>2</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="19">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="C14" s="20">
         <v>1</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="19">
-        <v>25</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2303,4 +2906,1133 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFF9E4-B366-4FD3-AB2C-945D7B7BFCEC}">
+  <dimension ref="A1:M155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="36"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="23">
+        <v>2</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="52">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23">
+        <v>3</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="22"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="22"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="22"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="22"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="41"/>
+      <c r="M17" s="42"/>
+    </row>
+    <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <v>2</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+    </row>
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+    </row>
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+    </row>
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+    </row>
+    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+    </row>
+    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+    </row>
+    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+    </row>
+    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+    </row>
+    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+    </row>
+    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+    </row>
+    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+    </row>
+    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+    </row>
+    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H15:J17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E3B82-074F-4A72-AC2B-F5C98362B2E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resource/PhantomRead/PhantomRead.xlsx
+++ b/resource/PhantomRead/PhantomRead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\resource\PhantomRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F49F4F-589A-48B1-97CD-4A111A699A24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097888F-03A4-432A-9826-A666823AE5C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="55">
   <si>
     <t>隔离级别</t>
   </si>
@@ -239,12 +239,30 @@
   <si>
     <t>数据行号</t>
   </si>
+  <si>
+    <t>读提交隔离级别</t>
+  </si>
+  <si>
+    <t>可重复读隔离级别</t>
+  </si>
+  <si>
+    <t>update users set name='Jonny' where class_id=1</t>
+  </si>
+  <si>
+    <t>Jonny</t>
+  </si>
+  <si>
+    <t>waiting ….</t>
+  </si>
+  <si>
+    <t>事务1提交后,事务B的insert才执行</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +311,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -575,14 +600,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,6 +656,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,7 +686,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -669,7 +698,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +717,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,54 +729,254 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="注释" xfId="5" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="4" builtinId="11"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1833,107 +2065,131 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D6293AD-A75E-4F6C-A027-B417F067461A}" name="表2" displayName="表2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D6293AD-A75E-4F6C-A027-B417F067461A}" name="表2" displayName="表2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" headerRowCellStyle="好">
   <autoFilter ref="A1:D5" xr:uid="{97F19234-BE1F-45FF-A6F6-2E59BC65D2AE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5373A9E3-C53F-445B-ABA6-62F507808B52}" name="隔离级别" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{ABA8823C-A40C-4703-88F3-3E24A6A07C0C}" name="脏读（Dirty Read）" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D4B41ADD-8C13-44D5-8426-C872A32E160B}" name="不可重复读（NonRepeatable Read）" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{10DD6242-F7F9-4910-9712-6B9FC58F0D21}" name="幻读（Phantom Read）" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{5373A9E3-C53F-445B-ABA6-62F507808B52}" name="隔离级别" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{ABA8823C-A40C-4703-88F3-3E24A6A07C0C}" name="脏读（Dirty Read）" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{D4B41ADD-8C13-44D5-8426-C872A32E160B}" name="不可重复读（NonRepeatable Read）" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{10DD6242-F7F9-4910-9712-6B9FC58F0D21}" name="幻读（Phantom Read）" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CF30430F-1173-4253-8A85-17D34D8BC874}" name="表3_815" displayName="表3_815" ref="A14:C17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="注释">
+  <autoFilter ref="A14:C17" xr:uid="{D1342F62-CE27-42CE-BA24-323BBE7BBF7B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B222368-219D-4656-BB51-0F3FFCF8201C}" name="id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{20A6E00E-A344-4863-A3AF-E32DFA9D2ABC}" name="name" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B82D8D42-A999-4668-9CFF-6B6CD5E383CC}" name="class_id" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1D240C43-548B-4591-A1F4-BFD3EF8DA339}" name="表3_81516" displayName="表3_81516" ref="A33:C36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="注释">
+  <autoFilter ref="A33:C36" xr:uid="{78431AAD-3F7A-47F4-9806-70BA3CEB0ED9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BE106B84-8F9E-4778-9C57-8CFC932B9BB3}" name="id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{42667040-18BE-484B-B10C-E11F71995C5A}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{474C80F2-4C74-4FBE-842D-FEEEE6572021}" name="class_id" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40564FB3-9926-40FA-9498-D355D24345E3}" name="表3" displayName="表3" ref="F1:H3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40564FB3-9926-40FA-9498-D355D24345E3}" name="表3" displayName="表3" ref="F1:H3" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowCellStyle="好">
   <autoFilter ref="F1:H3" xr:uid="{706CDEE7-74D5-4831-83BF-E47D9053969D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E03B532-84E0-4CCE-8FEF-B1CCC0959555}" name="id" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{24811457-580F-4BEA-B7D1-63D03B5880F4}" name="name" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{3E19F4AF-670E-4F8F-903C-66B4D7B451A3}" name="class_id" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{4E03B532-84E0-4CCE-8FEF-B1CCC0959555}" name="id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{24811457-580F-4BEA-B7D1-63D03B5880F4}" name="name" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{3E19F4AF-670E-4F8F-903C-66B4D7B451A3}" name="class_id" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A547CD9F-11AF-4BC3-B7F2-B685C62DF31D}" name="表4" displayName="表4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A547CD9F-11AF-4BC3-B7F2-B685C62DF31D}" name="表4" displayName="表4" ref="A1:B11" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" headerRowCellStyle="好">
   <autoFilter ref="A1:B11" xr:uid="{09BB5791-43CA-4081-A658-BCCE5A71ADB0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5A905238-6B35-4ABA-9187-3D7F93F0D48F}" name="事务 1" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{4CFED88F-B827-4F54-ACD7-BBA1CA426BAC}" name="事务 2" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{5A905238-6B35-4ABA-9187-3D7F93F0D48F}" name="事务 1" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{4CFED88F-B827-4F54-ACD7-BBA1CA426BAC}" name="事务 2" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9B6A69A7-054B-42D7-A92E-D833A9026D8F}" name="表5" displayName="表5" ref="A2:B12" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="好">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9B6A69A7-054B-42D7-A92E-D833A9026D8F}" name="表5" displayName="表5" ref="A2:B12" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="好">
   <autoFilter ref="A2:B12" xr:uid="{7789C5F8-21FA-4B15-B3E6-3B6F950FE54B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{82FF0183-D146-4852-A21A-8AFDEC5C9091}" name="事务 1" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{E58A7DF5-ADD7-4E4C-AC3E-EBBDE43B76F1}" name="事务 2" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{82FF0183-D146-4852-A21A-8AFDEC5C9091}" name="事务 1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{E58A7DF5-ADD7-4E4C-AC3E-EBBDE43B76F1}" name="事务 2" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA47CA3B-20BC-4196-BA6C-82CE7888D9CD}" name="表3_8" displayName="表3_8" ref="A13:C16" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DA47CA3B-20BC-4196-BA6C-82CE7888D9CD}" name="表3_8" displayName="表3_8" ref="A13:C16" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" headerRowCellStyle="注释">
   <autoFilter ref="A13:C16" xr:uid="{7D2D1BB2-3740-4AD1-ABAC-E57B64B3B43E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{867596D8-7BD8-4255-B3B7-7486A750217E}" name="id" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{FE7F2DC3-96CD-4790-8A60-3971EB042CE7}" name="name" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{4923B8C0-BFEB-4C96-8862-4C0678C1FB92}" name="class_id" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{867596D8-7BD8-4255-B3B7-7486A750217E}" name="id" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{FE7F2DC3-96CD-4790-8A60-3971EB042CE7}" name="name" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{4923B8C0-BFEB-4C96-8862-4C0678C1FB92}" name="class_id" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25" tableBorderDxfId="29" totalsRowBorderDxfId="32" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35" tableBorderDxfId="39" totalsRowBorderDxfId="42" headerRowCellStyle="注释">
   <autoFilter ref="A4:C6" xr:uid="{6FF22E54-6FB1-422F-A7E7-7F7D4DC17395}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="class_id" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="class_id" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19" tableBorderDxfId="23" totalsRowBorderDxfId="30" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29" tableBorderDxfId="33" totalsRowBorderDxfId="40" headerRowCellStyle="注释">
   <autoFilter ref="A12:C14" xr:uid="{3AD65E3D-92A6-493B-A090-7BB7F952B1A2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0DECEEC2-8B96-4AD1-A4BE-915970B356B4}" name="id" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{4664AF7A-5543-42E6-B76D-76E04B915F44}" name="name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{07F877D1-E7F4-43F1-AD0F-25CDE608649D}" name="class_id" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{0DECEEC2-8B96-4AD1-A4BE-915970B356B4}" name="id" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{4664AF7A-5543-42E6-B76D-76E04B915F44}" name="name" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{07F877D1-E7F4-43F1-AD0F-25CDE608649D}" name="class_id" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA288364-29FB-4C37-B691-C0104A43E1BD}" name="表12_11" displayName="表12_11" ref="E10:G12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA288364-29FB-4C37-B691-C0104A43E1BD}" name="表12_11" displayName="表12_11" ref="E10:G12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="26">
   <autoFilter ref="E10:G12" xr:uid="{05647586-9970-47D7-A8DD-02C72520F878}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{108E5160-2B1A-464D-AB42-206C55C8A0AD}" name="id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F64EECDC-388A-41A3-8F24-D24953C44541}" name="name" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{D606F162-389F-4A3E-945A-9A4CC6AB1D36}" name="class_id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{108E5160-2B1A-464D-AB42-206C55C8A0AD}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F64EECDC-388A-41A3-8F24-D24953C44541}" name="name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{D606F162-389F-4A3E-945A-9A4CC6AB1D36}" name="class_id" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5F888095-F25A-4129-A463-E3F1B99FF4EF}" name="表13_12" displayName="表13_12" ref="E18:G20" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5F888095-F25A-4129-A463-E3F1B99FF4EF}" name="表13_12" displayName="表13_12" ref="E18:G20" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="24">
   <autoFilter ref="E18:G20" xr:uid="{71A85346-D5F3-4A0F-82E5-F299A87A3900}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A09F8D93-C53D-4806-BE43-4FE5691465F2}" name="id" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{380E7136-AB15-4703-8784-04E86B881EFE}" name="name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DC0A4E70-4E4D-43EF-84DF-69E0218293C9}" name="class_id" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{A09F8D93-C53D-4806-BE43-4FE5691465F2}" name="id" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{380E7136-AB15-4703-8784-04E86B881EFE}" name="name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{DC0A4E70-4E4D-43EF-84DF-69E0218293C9}" name="class_id" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2205,7 +2461,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,25 +2475,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2339,10 +2595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2419,7 +2675,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,10 +2689,10 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2512,7 +2768,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,12 +2780,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2550,37 +2806,37 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="22">
         <v>1</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="22">
         <v>1</v>
       </c>
       <c r="D7" s="5"/>
@@ -2626,13 +2882,13 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5"/>
@@ -2693,7 +2949,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,15 +2962,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2741,39 +2997,39 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
@@ -2825,39 +3081,39 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="21">
         <v>1</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>1</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="21">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>1</v>
       </c>
       <c r="D14" s="6"/>
@@ -2912,7 +3168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFF9E4-B366-4FD3-AB2C-945D7B7BFCEC}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2920,148 +3178,148 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="36"/>
+    <col min="5" max="7" width="9.140625" style="37"/>
     <col min="11" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="25">
         <v>1000</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24">
         <v>1</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="24">
         <v>2</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24">
         <v>2</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="24">
         <v>2</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24">
         <v>3</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3071,54 +3329,54 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="23" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="23" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="13"/>
       <c r="M9" s="14"/>
     </row>
@@ -3126,16 +3384,16 @@
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
     </row>
@@ -3143,16 +3401,16 @@
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="13"/>
       <c r="M11" s="14"/>
     </row>
@@ -3160,141 +3418,141 @@
       <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="13"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="22"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="13"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="23" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="22"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="23" t="s">
         <v>38</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="22" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="23" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="22" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="40" t="s">
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="41"/>
-      <c r="M17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="13"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="13"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
     </row>
     <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="13"/>
       <c r="M20" s="14"/>
     </row>
@@ -4025,14 +4283,383 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E3B82-074F-4A72-AC2B-F5C98362B2E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="22">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>2</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="22">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/resource/PhantomRead/PhantomRead.xlsx
+++ b/resource/PhantomRead/PhantomRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\resource\PhantomRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E097888F-03A4-432A-9826-A666823AE5C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD6CBA-734B-484F-B87C-587926CA4BA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="56">
   <si>
     <t>隔离级别</t>
   </si>
@@ -136,9 +137,6 @@
   </si>
   <si>
     <t>/* 结果为 2 */</t>
-  </si>
-  <si>
-    <t>/* 结果为 1 */</t>
   </si>
   <si>
     <t>SELECT * FROM users WHERE class_id=1;</t>
@@ -256,6 +254,12 @@
   </si>
   <si>
     <t>事务1提交后,事务B的insert才执行</t>
+  </si>
+  <si>
+    <t>update users set name='Jonny'</t>
+  </si>
+  <si>
+    <t>jonny</t>
   </si>
 </sst>
 </file>
@@ -372,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -531,6 +535,15 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="4"/>
       </left>
       <right/>
@@ -599,6 +612,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -608,7 +634,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,6 +670,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -654,128 +751,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -805,6 +847,18 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -824,6 +878,16 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -843,143 +907,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -997,14 +954,204 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="4"/>
+          <color rgb="FFB2B2B2"/>
         </left>
         <right style="thin">
-          <color theme="4"/>
+          <color rgb="FFB2B2B2"/>
         </right>
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1109,9 +1256,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1125,6 +1272,13 @@
         <top style="thin">
           <color theme="4"/>
         </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
@@ -1262,9 +1416,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1285,28 +1439,125 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
         <right style="thin">
           <color theme="4"/>
         </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
         <top style="thin">
-          <color theme="4"/>
+          <color theme="9"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1330,6 +1581,131 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4"/>
@@ -1351,6 +1727,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1367,297 +1762,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9"/>
-        </left>
-        <right style="thin">
-          <color theme="9"/>
-        </right>
-        <top style="thin">
-          <color theme="9"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2078,24 +2182,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CF30430F-1173-4253-8A85-17D34D8BC874}" name="表3_815" displayName="表3_815" ref="A14:C17" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CF30430F-1173-4253-8A85-17D34D8BC874}" name="表3_815" displayName="表3_815" ref="A14:C17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="注释">
   <autoFilter ref="A14:C17" xr:uid="{D1342F62-CE27-42CE-BA24-323BBE7BBF7B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B222368-219D-4656-BB51-0F3FFCF8201C}" name="id" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{20A6E00E-A344-4863-A3AF-E32DFA9D2ABC}" name="name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B82D8D42-A999-4668-9CFF-6B6CD5E383CC}" name="class_id" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{5B222368-219D-4656-BB51-0F3FFCF8201C}" name="id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{20A6E00E-A344-4863-A3AF-E32DFA9D2ABC}" name="name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{B82D8D42-A999-4668-9CFF-6B6CD5E383CC}" name="class_id" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1D240C43-548B-4591-A1F4-BFD3EF8DA339}" name="表3_81516" displayName="表3_81516" ref="A33:C36" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1D240C43-548B-4591-A1F4-BFD3EF8DA339}" name="表3_81516" displayName="表3_81516" ref="A33:C36" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="注释">
   <autoFilter ref="A33:C36" xr:uid="{78431AAD-3F7A-47F4-9806-70BA3CEB0ED9}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE106B84-8F9E-4778-9C57-8CFC932B9BB3}" name="id" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{42667040-18BE-484B-B10C-E11F71995C5A}" name="name" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{474C80F2-4C74-4FBE-842D-FEEEE6572021}" name="class_id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE106B84-8F9E-4778-9C57-8CFC932B9BB3}" name="id" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{42667040-18BE-484B-B10C-E11F71995C5A}" name="name" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{474C80F2-4C74-4FBE-842D-FEEEE6572021}" name="class_id" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A393FCB7-B1DD-46DC-A6CE-48A3115C2F7B}" name="表3_81517" displayName="表3_81517" ref="A13:C15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" headerRowCellStyle="注释">
+  <autoFilter ref="A13:C15" xr:uid="{A57C27C3-7750-419A-A991-173439F8D2E4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AFB7CE2E-125E-47FE-91EF-EEA458C2AC49}" name="id" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D0D951AD-1F3D-4C1C-8CA2-A153CB0A8400}" name="name" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A1DB1AB1-872D-46CA-B068-EEB222D22CBC}" name="class_id" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2148,19 +2264,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="35" tableBorderDxfId="39" totalsRowBorderDxfId="42" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FCE63FFF-3D84-42E1-9EDB-513FBBC569E4}" name="表12" displayName="表12" ref="A4:C6" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40" headerRowCellStyle="注释">
   <autoFilter ref="A4:C6" xr:uid="{6FF22E54-6FB1-422F-A7E7-7F7D4DC17395}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="class_id" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{09F700CA-7719-4C66-8C06-743CBC023729}" name="id" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{09CA90D6-75D4-427D-9F70-F3A04FE1D4BA}" name="name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7F3766BF-86B5-4358-B556-7392EC967969}" name="class_id" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29" tableBorderDxfId="33" totalsRowBorderDxfId="40" headerRowCellStyle="注释">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{B69A9A21-32F5-4DC8-94E4-F3F32CE23085}" name="表13" displayName="表13" ref="A12:C14" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33" headerRowCellStyle="注释">
   <autoFilter ref="A12:C14" xr:uid="{3AD65E3D-92A6-493B-A090-7BB7F952B1A2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0DECEEC2-8B96-4AD1-A4BE-915970B356B4}" name="id" dataDxfId="32"/>
@@ -2172,24 +2288,24 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA288364-29FB-4C37-B691-C0104A43E1BD}" name="表12_11" displayName="表12_11" ref="E10:G12" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CA288364-29FB-4C37-B691-C0104A43E1BD}" name="表12_11" displayName="表12_11" ref="E10:G12" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="E10:G12" xr:uid="{05647586-9970-47D7-A8DD-02C72520F878}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{108E5160-2B1A-464D-AB42-206C55C8A0AD}" name="id" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F64EECDC-388A-41A3-8F24-D24953C44541}" name="name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{D606F162-389F-4A3E-945A-9A4CC6AB1D36}" name="class_id" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{108E5160-2B1A-464D-AB42-206C55C8A0AD}" name="id" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{F64EECDC-388A-41A3-8F24-D24953C44541}" name="name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{D606F162-389F-4A3E-945A-9A4CC6AB1D36}" name="class_id" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5F888095-F25A-4129-A463-E3F1B99FF4EF}" name="表13_12" displayName="表13_12" ref="E18:G20" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5F888095-F25A-4129-A463-E3F1B99FF4EF}" name="表13_12" displayName="表13_12" ref="E18:G20" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="E18:G20" xr:uid="{71A85346-D5F3-4A0F-82E5-F299A87A3900}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A09F8D93-C53D-4806-BE43-4FE5691465F2}" name="id" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{380E7136-AB15-4703-8784-04E86B881EFE}" name="name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{DC0A4E70-4E4D-43EF-84DF-69E0218293C9}" name="class_id" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{A09F8D93-C53D-4806-BE43-4FE5691465F2}" name="id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{380E7136-AB15-4703-8784-04E86B881EFE}" name="name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{DC0A4E70-4E4D-43EF-84DF-69E0218293C9}" name="class_id" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2475,25 +2591,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2595,10 +2711,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2674,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39773B-A0BC-4068-A66E-174D5877953B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,10 +2805,10 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2752,7 +2868,7 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2780,63 +2896,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="5"/>
@@ -2854,7 +2970,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -2866,29 +2982,29 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="5"/>
@@ -2962,24 +3078,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="6" t="s">
         <v>26</v>
       </c>
@@ -2988,48 +3104,48 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
@@ -3059,7 +3175,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
@@ -3072,77 +3188,77 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
-        <v>1</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="16">
         <v>1</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="16">
         <v>1</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
@@ -3178,148 +3294,148 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="37"/>
+    <col min="5" max="7" width="9.140625" style="25"/>
     <col min="11" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="57">
+        <v>1000</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="25">
-        <v>1000</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24">
-        <v>1</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="24">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24" t="s">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
         <v>2</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18">
         <v>3</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="L5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="18">
         <v>1</v>
       </c>
     </row>
@@ -3329,232 +3445,232 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="23" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="23" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>2</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="23"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="23" t="s">
+      <c r="E13" s="47"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="23"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="23" t="s">
+      <c r="E14" s="47"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="23"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="42" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="47"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="23"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="53"/>
     </row>
     <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
     </row>
     <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E21"/>
@@ -4233,30 +4349,10 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
@@ -4267,10 +4363,30 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H15:J17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4285,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E3B82-074F-4A72-AC2B-F5C98362B2E3}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,81 +4414,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="35" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>1</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
+      <c r="A8" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -4388,7 +4504,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4400,29 +4516,29 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5"/>
@@ -4432,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4444,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4464,81 +4580,81 @@
       <c r="D17" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>2</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>1</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="22">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
-        <v>2</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="22">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -4554,7 +4670,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -4562,33 +4678,33 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="5"/>
@@ -4598,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -4610,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -4622,30 +4738,26 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" t="s">
-        <v>54</v>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="30" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A2:C2"/>
@@ -4653,8 +4765,12 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -4662,4 +4778,248 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A507C4-563C-4B70-9EC0-8A5D6AEBBD47}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>2</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>3</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/resource/PhantomRead/PhantomRead.xlsx
+++ b/resource/PhantomRead/PhantomRead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyBox\Github\GitDisk\resource\PhantomRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD6CBA-734B-484F-B87C-587926CA4BA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F10A7-47DA-401B-9407-4B87BF87E76E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>读取version&lt;=1002且id=1的数据,然后复制该条数据,并把version设置为1002</t>
   </si>
   <si>
-    <t>插入一条数据,由于当前事务的版本好是1003,所以新插入的数据版本号是1003</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>jonny</t>
+  </si>
+  <si>
+    <t>插入一条数据,由于当前事务的版本号是1003,所以新插入的数据版本号是1003</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2577,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F1" sqref="F1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE39773B-A0BC-4068-A66E-174D5877953B}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,7 +2884,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFF9E4-B366-4FD3-AB2C-945D7B7BFCEC}">
   <dimension ref="A1:M155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,7 +3300,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="57">
         <v>1000</v>
@@ -3308,24 +3308,24 @@
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
       <c r="H1" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I1" s="57"/>
       <c r="J1" s="57"/>
       <c r="K1" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="57"/>
       <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>10</v>
@@ -3616,7 +3616,7 @@
       <c r="I17" s="55"/>
       <c r="J17" s="56"/>
       <c r="K17" s="48" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -4415,7 +4415,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -4560,7 +4560,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
@@ -4678,7 +4678,7 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -4726,7 +4726,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -4751,7 +4751,7 @@
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
       <c r="D37" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +4796,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -4977,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
@@ -4988,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
@@ -4999,7 +4999,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="34">
         <v>1</v>
